--- a/resources/experiment 1/metrics/R2/incidence/Macroalbuminuria (INC).xlsx
+++ b/resources/experiment 1/metrics/R2/incidence/Macroalbuminuria (INC).xlsx
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.999165337852323</v>
+        <v>0.9991150998960281</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9991641899613722</v>
+        <v>0.9991567441848135</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9991641899613722</v>
+        <v>0.996933037205515</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9994125382435425</v>
+        <v>0.9990874661804025</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9994125382435425</v>
+        <v>0.9991447349734291</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9994125382435425</v>
+        <v>0.9981701652541393</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9965951908967349</v>
+        <v>0.999283417342841</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9965951908967349</v>
+        <v>0.9993132564651125</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9965951908967349</v>
+        <v>0.999341745970114</v>
       </c>
     </row>
   </sheetData>
